--- a/biology/Zoologie/Cercyonis_meadii/Cercyonis_meadii.xlsx
+++ b/biology/Zoologie/Cercyonis_meadii/Cercyonis_meadii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercyonis meadii est un lépidoptère appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre  Cercyonis.
 </t>
@@ -511,17 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Cercyonis meadii par Edwards en 1872.
-Synonymes : Erebia meadii Edwards, 1872[1].
-Noms vernaculaires
-Il se nomme Red-eyed Wood Nymph ou Mead's Wood Nymph en anglais[1],[2].
-Sous-espèces
-Cercyonis meadii meadii
-Cercyonis meadii alamosa T. et J. Emmel, 1969 ;
-Cercyonis meadii melania Wind, 1946 ;
-Cercyonis meadii mexicana (Chermock, 1949)[1];</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Cercyonis meadii par Edwards en 1872.
+Synonymes : Erebia meadii Edwards, 1872.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +554,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Red-eyed Wood Nymph ou Mead's Wood Nymph en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cercyonis meadii meadii
+Cercyonis meadii alamosa T. et J. Emmel, 1969 ;
+Cercyonis meadii melania Wind, 1946 ;
+Cercyonis meadii mexicana (Chermock, 1949);</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est de couleur marron cuivré avec aux antérieures une bande submarginale jaune orangé portant deux gros ocelles noirs pupillés de blanc et cernés de jaune dont un à l'apex alors que les postérieures sont marron avec de petits ocelles cernés d'orange. 
 Le revers est marron terne marbré avec aux antérieures une large plage jaune orangé et les deux gros ocelles noirs pupillés de blanc et de discrets ocelles noirs pupillés de blanc cernés de marron aux postérieures.
@@ -557,71 +643,183 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cercyonis_meadii</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-C'est la chenille au premier stade qui hiverne[2].
-Plantes hôtes
-Les plantes hôtes de ses chenilles seraient des Poaceae[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la chenille au premier stade qui hiverne.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cercyonis_meadii</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de ses chenilles seraient des Poaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord, est du Montana et du Wyoming, ouest du Dakota du Nord, Colorado, Utah, Arizona, Nouveau-Mexique, ouest du Texas et Mexique[1],[2].
-Biotope
-Il réside dans les bois de pins, les bois clairs.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord, est du Montana et du Wyoming, ouest du Dakota du Nord, Colorado, Utah, Arizona, Nouveau-Mexique, ouest du Texas et Mexique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les bois de pins, les bois clairs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercyonis_meadii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
